--- a/code/learn/fsdata/재무상태표.xlsx
+++ b/code/learn/fsdata/재무상태표.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,538 +436,490 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>항목</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>20211231</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>20201231</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>20191231</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>20181231</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>20171231</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>20161231</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>20151231</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>20141231</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>20131231</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>20121231</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>20111231</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>20101231</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>20091231</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
+          <t>ifrs-full_Assets</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>자산총계</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>426621158000000</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>378235718000000</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>352564497000000</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>339357244000000</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>301752090000000</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>262174324000000</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>242179521000000</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>230422958000000</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>214075018000000</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>181071570000000</v>
-      </c>
-      <c r="L2" t="n">
-        <v>155800263000000</v>
-      </c>
-      <c r="M2" t="n">
-        <v>134308803000000</v>
-      </c>
-      <c r="N2" t="n">
-        <v>112179789000000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
+          <t>ifrs-full_CurrentAssets</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>유동자산</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>218163185000000</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>198215579000000</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>181385260000000</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>174697424000000</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>146982464000000</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>141429704000000</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>124814725000000</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>115146026000000</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>110760271000000</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>87269017000000</v>
-      </c>
-      <c r="L3" t="n">
-        <v>71502063000000</v>
-      </c>
-      <c r="M3" t="n">
-        <v>61402589000000</v>
-      </c>
-      <c r="N3" t="n">
-        <v>54211297000000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
+          <t>ifrs-full_CashAndCashEquivalents</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>현금및현금성자산</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>39031415000000</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>29382578000000</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>26885999000000</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>30340505000000</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>30545130000000</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>32111442000000</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>22636744000000</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>16840766000000</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>16284780000000</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>18791460000000</v>
-      </c>
-      <c r="L4" t="n">
-        <v>14691761000000</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9791419000000</v>
-      </c>
-      <c r="N4" t="n">
-        <v>10149930000000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
+          <t>dart_ShortTermTradeReceivable</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>매출채권</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>40713415000000</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>30965058000000</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>35131343000000</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>33867733000000</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>27695995000000</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>24279211000000</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>25168026000000</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>24694610000000</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>24988532000000</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>23861235000000</v>
-      </c>
-      <c r="L5" t="n">
-        <v>21882127000000</v>
-      </c>
-      <c r="M5" t="n">
-        <v>19153114000000</v>
-      </c>
-      <c r="N5" t="n">
-        <v>17818740000000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>entity00126380_udf_BS_201710182279121_CurrentAssets</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>미수금</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>4497257000000</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>3604539000000</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>4179120000000</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>3080733000000</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>4108961000000</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>3521197000000</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>3352663000000</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>3539875000000</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>2887402000000</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>2813361000000</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2270901000000</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2155720000000</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1978039000000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
+          <t>ifrs-full_Inventories</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>재고자산</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>41384404000000</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>32043145000000</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>26766464000000</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>28984704000000</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>24983355000000</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>18353503000000</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>18811794000000</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>17317504000000</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>19134868000000</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>17747413000000</v>
-      </c>
-      <c r="L7" t="n">
-        <v>15716715000000</v>
-      </c>
-      <c r="M7" t="n">
-        <v>13364524000000</v>
-      </c>
-      <c r="N7" t="n">
-        <v>9839329000000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
+          <t>ifrs-full_Liabilities</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>부채총계</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>121721227000000</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>102287702000000</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>89684076000000</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>91604067000000</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>87260662000000</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>69211291000000</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>63119716000000</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>62334770000000</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>64059008000000</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>59591364000000</v>
-      </c>
-      <c r="L8" t="n">
-        <v>54486633000000</v>
-      </c>
-      <c r="M8" t="n">
-        <v>45131167000000</v>
-      </c>
-      <c r="N8" t="n">
-        <v>39134587000000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
+          <t>ifrs-full_CurrentLiabilities</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>유동부채</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>88117133000000</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>75604351000000</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>63782764000000</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>69081510000000</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>67175114000000</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>54704095000000</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>50502909000000</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>52013913000000</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>51315409000000</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>46933052000000</v>
-      </c>
-      <c r="L9" t="n">
-        <v>44319014000000</v>
-      </c>
-      <c r="M9" t="n">
-        <v>39944721000000</v>
-      </c>
-      <c r="N9" t="n">
-        <v>34204424000000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
+          <t>ifrs-full_ShorttermBorrowings</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>단기차입금</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>13687793000000</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>16553429000000</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>14393468000000</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>13586660000000</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>15767619000000</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>12746789000000</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>11155425000000</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>8029299000000</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>6438517000000</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>8443752000000</v>
-      </c>
-      <c r="L10" t="n">
-        <v>9653722000000</v>
-      </c>
-      <c r="M10" t="n">
-        <v>8429721000000</v>
-      </c>
-      <c r="N10" t="n">
-        <v>7780007000000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
+          <t>ifrs-full_Equity</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>자본총계</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>304899931000000</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>275948016000000</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>262880421000000</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>247753177000000</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>214491428000000</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>192963033000000</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>179059805000000</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>168088188000000</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>150016010000000</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>121480206000000</v>
-      </c>
-      <c r="L11" t="n">
-        <v>101313630000000</v>
-      </c>
-      <c r="M11" t="n">
-        <v>89177636000000</v>
-      </c>
-      <c r="N11" t="n">
-        <v>73045202000000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
+          <t>ifrs-full_IssuedCapital</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>자본금</t>
         </is>
-      </c>
-      <c r="B12" t="n">
-        <v>897514000000</v>
       </c>
       <c r="C12" t="n">
         <v>897514000000</v>
@@ -999,57 +951,757 @@
       <c r="L12" t="n">
         <v>897514000000</v>
       </c>
-      <c r="M12" t="n">
-        <v>897514000000</v>
-      </c>
-      <c r="N12" t="n">
-        <v>897514000000</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
+          <t>ifrs-full_RetainedEarnings</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>이익잉여금(결손금)</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>293064763000000</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>271068211000000</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>254582894000000</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>242698956000000</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>215811200000000</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>193086317000000</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>185132014000000</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>169529604000000</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>148600282000000</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>119985689000000</v>
       </c>
-      <c r="L13" t="n">
-        <v>97622872000000</v>
-      </c>
-      <c r="M13" t="n">
-        <v>85071444000000</v>
-      </c>
-      <c r="N13" t="n">
-        <v>71065247000000</v>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>ifrs-full_Revenue</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>수익(매출액)</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>279604799000000</v>
+      </c>
+      <c r="D14" t="n">
+        <v>236806988000000</v>
+      </c>
+      <c r="E14" t="n">
+        <v>230400881000000</v>
+      </c>
+      <c r="F14" t="n">
+        <v>243771415000000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>239575376000000</v>
+      </c>
+      <c r="H14" t="n">
+        <v>201866745000000</v>
+      </c>
+      <c r="I14" t="n">
+        <v>200653482000000</v>
+      </c>
+      <c r="J14" t="n">
+        <v>206205987000000</v>
+      </c>
+      <c r="K14" t="n">
+        <v>228692667000000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>201103613000000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>ifrs-full_CostOfSales</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>매출원가</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>166411342000000</v>
+      </c>
+      <c r="D15" t="n">
+        <v>144488296000000</v>
+      </c>
+      <c r="E15" t="n">
+        <v>147239549000000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>132394411000000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>129290661000000</v>
+      </c>
+      <c r="H15" t="n">
+        <v>120277715000000</v>
+      </c>
+      <c r="I15" t="n">
+        <v>123482118000000</v>
+      </c>
+      <c r="J15" t="n">
+        <v>128278800000000</v>
+      </c>
+      <c r="K15" t="n">
+        <v>137696309000000</v>
+      </c>
+      <c r="L15" t="n">
+        <v>126651931000000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>ifrs-full_GrossProfit</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>매출총이익</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>113193457000000</v>
+      </c>
+      <c r="D16" t="n">
+        <v>92318692000000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>83161332000000</v>
+      </c>
+      <c r="F16" t="n">
+        <v>111377004000000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>110284715000000</v>
+      </c>
+      <c r="H16" t="n">
+        <v>81589030000000</v>
+      </c>
+      <c r="I16" t="n">
+        <v>77171364000000</v>
+      </c>
+      <c r="J16" t="n">
+        <v>77927187000000</v>
+      </c>
+      <c r="K16" t="n">
+        <v>90996358000000</v>
+      </c>
+      <c r="L16" t="n">
+        <v>74451682000000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>dart_TotalSellingGeneralAdministrativeExpenses</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>판매비와관리비</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>61559601000000</v>
+      </c>
+      <c r="D17" t="n">
+        <v>56324816000000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>55392823000000</v>
+      </c>
+      <c r="F17" t="n">
+        <v>52490335000000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>56639677000000</v>
+      </c>
+      <c r="H17" t="n">
+        <v>52348358000000</v>
+      </c>
+      <c r="I17" t="n">
+        <v>50757922000000</v>
+      </c>
+      <c r="J17" t="n">
+        <v>52902116000000</v>
+      </c>
+      <c r="K17" t="n">
+        <v>54211345000000</v>
+      </c>
+      <c r="L17" t="n">
+        <v>45402344000000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>dart_OperatingIncomeLoss</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>영업이익</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>51633856000000</v>
+      </c>
+      <c r="D18" t="n">
+        <v>35993876000000</v>
+      </c>
+      <c r="E18" t="n">
+        <v>27768509000000</v>
+      </c>
+      <c r="F18" t="n">
+        <v>58886669000000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>53645038000000</v>
+      </c>
+      <c r="H18" t="n">
+        <v>29240672000000</v>
+      </c>
+      <c r="I18" t="n">
+        <v>26413442000000</v>
+      </c>
+      <c r="J18" t="n">
+        <v>25025071000000</v>
+      </c>
+      <c r="K18" t="n">
+        <v>36785013000000</v>
+      </c>
+      <c r="L18" t="n">
+        <v>29049338000000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>ifrs-full_FinanceIncome</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>금융수익</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>8543187000000</v>
+      </c>
+      <c r="D19" t="n">
+        <v>12267600000000</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10161632000000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>9999321000000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>9737391000000</v>
+      </c>
+      <c r="H19" t="n">
+        <v>11385645000000</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10514879000000</v>
+      </c>
+      <c r="J19" t="n">
+        <v>8259829000000</v>
+      </c>
+      <c r="K19" t="n">
+        <v>8014672000000</v>
+      </c>
+      <c r="L19" t="n">
+        <v>7836554000000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>ifrs-full_ProfitLoss</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>당기순이익(손실)</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>39907450000000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>26407832000000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>21738865000000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>44344857000000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>42186747000000</v>
+      </c>
+      <c r="H20" t="n">
+        <v>22726092000000</v>
+      </c>
+      <c r="I20" t="n">
+        <v>19060144000000</v>
+      </c>
+      <c r="J20" t="n">
+        <v>23394358000000</v>
+      </c>
+      <c r="K20" t="n">
+        <v>30474764000000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>23845285000000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>ifrs-full_CashFlowsFromUsedInOperatingActivities</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>영업활동 현금흐름</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>65105448000000</v>
+      </c>
+      <c r="D21" t="n">
+        <v>65287009000000</v>
+      </c>
+      <c r="E21" t="n">
+        <v>45382915000000</v>
+      </c>
+      <c r="F21" t="n">
+        <v>67031863000000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>62162041000000</v>
+      </c>
+      <c r="H21" t="n">
+        <v>47385644000000</v>
+      </c>
+      <c r="I21" t="n">
+        <v>40061761000000</v>
+      </c>
+      <c r="J21" t="n">
+        <v>36975389000000</v>
+      </c>
+      <c r="K21" t="n">
+        <v>46707440000000</v>
+      </c>
+      <c r="L21" t="n">
+        <v>37972809000000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>ifrs-full_InterestPaidClassifiedAsOperatingActivities</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>이자의 지급</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>434441000000</v>
+      </c>
+      <c r="D22" t="n">
+        <v>555321000000</v>
+      </c>
+      <c r="E22" t="n">
+        <v>579979000000</v>
+      </c>
+      <c r="F22" t="n">
+        <v>548272000000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>542715000000</v>
+      </c>
+      <c r="H22" t="n">
+        <v>443838000000</v>
+      </c>
+      <c r="I22" t="n">
+        <v>748256000000</v>
+      </c>
+      <c r="J22" t="n">
+        <v>463740000000</v>
+      </c>
+      <c r="K22" t="n">
+        <v>434857000000</v>
+      </c>
+      <c r="L22" t="n">
+        <v>576379000000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>ifrs-full_CashFlowsFromUsedInInvestingActivities</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>투자활동 현금흐름</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-33047763000000</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-53628591000000</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-39948171000000</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-52240453000000</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-49385216000000</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-29658675000000</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-27167787000000</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-32806408000000</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-44747019000000</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-31321554000000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>ifrs-full_CashFlowsFromUsedInFinancingActivities</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>재무활동 현금흐름</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-23991033000000</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-8327839000000</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-9484510000000</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-15090222000000</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-12560867000000</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-8669514000000</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-6573509000000</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-3057109000000</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-4137031000000</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-1864508000000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>entity00126380_udf_CF_20171021102249949_CashFlowsFromUsedInFinancingActivities</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>단기차입금의 순증가(감소)</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-2616943000000</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2191186000000</v>
+      </c>
+      <c r="E25" t="n">
+        <v>865792000000</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-2046470000000</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2730676000000</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1351037000000</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3202416000000</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1833419000000</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-1861536000000</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-800579000000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>ifrs-full_IncreaseDecreaseInCashAndCashEquivalents</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>현금및현금성자산의 순증감</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>9648837000000</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2496579000000</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-3454506000000</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-204625000000</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-1566312000000</v>
+      </c>
+      <c r="H26" t="n">
+        <v>9474698000000</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5795978000000</v>
+      </c>
+      <c r="J26" t="n">
+        <v>555986000000</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-2506680000000</v>
+      </c>
+      <c r="L26" t="n">
+        <v>4099699000000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>dart_CashAndCashEquivalentsAtBeginningOfPeriodCf</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>기초의 현금및현금성자산</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>29382578000000</v>
+      </c>
+      <c r="D27" t="n">
+        <v>26885999000000</v>
+      </c>
+      <c r="E27" t="n">
+        <v>30340505000000</v>
+      </c>
+      <c r="F27" t="n">
+        <v>30545130000000</v>
+      </c>
+      <c r="G27" t="n">
+        <v>32111442000000</v>
+      </c>
+      <c r="H27" t="n">
+        <v>22636744000000</v>
+      </c>
+      <c r="I27" t="n">
+        <v>16840766000000</v>
+      </c>
+      <c r="J27" t="n">
+        <v>16284780000000</v>
+      </c>
+      <c r="K27" t="n">
+        <v>18791460000000</v>
+      </c>
+      <c r="L27" t="n">
+        <v>14691761000000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>dart_CashAndCashEquivalentsAtEndOfPeriodCf</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>기말의 현금및현금성자산</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>39031415000000</v>
+      </c>
+      <c r="D28" t="n">
+        <v>29382578000000</v>
+      </c>
+      <c r="E28" t="n">
+        <v>26885999000000</v>
+      </c>
+      <c r="F28" t="n">
+        <v>30340505000000</v>
+      </c>
+      <c r="G28" t="n">
+        <v>30545130000000</v>
+      </c>
+      <c r="H28" t="n">
+        <v>32111442000000</v>
+      </c>
+      <c r="I28" t="n">
+        <v>22636744000000</v>
+      </c>
+      <c r="J28" t="n">
+        <v>16840766000000</v>
+      </c>
+      <c r="K28" t="n">
+        <v>16284780000000</v>
+      </c>
+      <c r="L28" t="n">
+        <v>18791460000000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>ROA</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.09354306332833122</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0698184511490266</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.06165925719968338</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.1306730820810179</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.1398059811284157</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.08668313377628849</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.07870254231777096</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.1015278954972881</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.1423555363195158</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.1316898340252973</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>ROE</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.1308870417553489</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.0956985753432632</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.08269488049853663</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.1789880458324052</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.1966826711601734</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.1177743303817162</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.1064456872384062</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.1391790718810057</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.2031434111599155</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.1962894679319197</v>
       </c>
     </row>
   </sheetData>
